--- a/biology/Botanique/Rubinoboletus/Rubinoboletus.xlsx
+++ b/biology/Botanique/Rubinoboletus/Rubinoboletus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubinoboletus ou bolet rubis est un genre de champignon de la famille des Boletaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubinoboletus Pilát &amp; Dermek, 1969.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bolet rubis a une cuticule sèche, diversement colorée, et son sporophore a une chair ferme, immuable ou cyanescente. Son hyménium est adné ou décurrent, de couleur carmin ou rouge rosé. Il a une sporée rosâtre pâle dont les spores sont ellipsoïdes, phaséoliformes. 
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bolet rubis est initialement basé sur Rubinoboletus rubinus d'Europe où ce taxon est localisé en Hongrie et Bulgarie. 
 Il s’associe en mycorhizes avec les Fagaceae (Chêne) et les Bétulacées (Charme) en Europe.
